--- a/CodeSystem-cs-enrollment-type.xlsx
+++ b/CodeSystem-cs-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:16:03+00:00</t>
+    <t>2023-02-13T12:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-enrollment-type.xlsx
+++ b/CodeSystem-cs-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:20:57+00:00</t>
+    <t>2023-02-13T12:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-enrollment-type.xlsx
+++ b/CodeSystem-cs-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-13T19:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-enrollment-type.xlsx
+++ b/CodeSystem-cs-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:08:35+00:00</t>
+    <t>2023-02-13T19:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-enrollment-type.xlsx
+++ b/CodeSystem-cs-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:10:14+00:00</t>
+    <t>2023-02-13T19:11:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-enrollment-type.xlsx
+++ b/CodeSystem-cs-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T07:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-enrollment-type.xlsx
+++ b/CodeSystem-cs-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T07:22:19+00:00</t>
+    <t>2023-02-14T08:50:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
